--- a/teaching/traditional_assets/database/data/egypt/egypt_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/egypt/egypt_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,41 +590,47 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.2475</v>
+      </c>
+      <c r="E2">
+        <v>0.5945</v>
+      </c>
       <c r="G2">
-        <v>0.2598958333333334</v>
+        <v>0.2382513661202185</v>
       </c>
       <c r="H2">
-        <v>0.2598958333333334</v>
+        <v>0.2382513661202185</v>
       </c>
       <c r="I2">
-        <v>0.2864583333333334</v>
+        <v>0.2496174863387978</v>
       </c>
       <c r="J2">
-        <v>0.2512423547400612</v>
+        <v>0.2416308869969101</v>
       </c>
       <c r="K2">
-        <v>9.52</v>
+        <v>21.99</v>
       </c>
       <c r="L2">
-        <v>0.2479166666666667</v>
+        <v>0.240327868852459</v>
       </c>
       <c r="M2">
-        <v>4.75</v>
+        <v>5.84</v>
       </c>
       <c r="N2">
-        <v>0.1372832369942197</v>
+        <v>0.04936601859678783</v>
       </c>
       <c r="O2">
-        <v>0.4989495798319328</v>
+        <v>0.265575261482492</v>
       </c>
       <c r="P2">
-        <v>4.75</v>
+        <v>5.84</v>
       </c>
       <c r="Q2">
-        <v>0.1372832369942197</v>
+        <v>0.04936601859678783</v>
       </c>
       <c r="R2">
-        <v>0.4989495798319328</v>
+        <v>0.265575261482492</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,31 +639,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>8.039999999999999</v>
+        <v>13.28</v>
       </c>
       <c r="V2">
-        <v>0.2323699421965318</v>
+        <v>0.1122569737954354</v>
       </c>
       <c r="W2">
-        <v>0.3565543071161049</v>
+        <v>0.387280701754386</v>
       </c>
       <c r="X2">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="Y2">
-        <v>0.2804423632079466</v>
+        <v>0.3115580377851434</v>
       </c>
       <c r="Z2">
-        <v>2.003129890453834</v>
+        <v>2.190567392865693</v>
       </c>
       <c r="AA2">
-        <v>0.5032710705278221</v>
+        <v>0.5870397756462727</v>
       </c>
       <c r="AB2">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="AC2">
-        <v>0.4271591266196638</v>
+        <v>0.5113171116770302</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-8.039999999999999</v>
+        <v>-13.28</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,28 +684,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.3027108433734939</v>
+        <v>-0.1264521043610741</v>
       </c>
       <c r="AK2">
-        <v>-0.3073394495412843</v>
+        <v>-0.1955241460541814</v>
       </c>
       <c r="AL2">
-        <v>0.082</v>
+        <v>0.078</v>
       </c>
       <c r="AM2">
-        <v>0.082</v>
+        <v>0.078</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>134.1463414634146</v>
+        <v>292.8205128205128</v>
       </c>
       <c r="AP2">
-        <v>-0.7243243243243243</v>
+        <v>-0.5724137931034483</v>
       </c>
       <c r="AQ2">
-        <v>134.1463414634146</v>
+        <v>292.8205128205128</v>
       </c>
     </row>
     <row r="3">
@@ -710,124 +716,255 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Delta Insurance Company (CASE:DEIN)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Insurance (General)</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0.323</v>
+      </c>
+      <c r="E3">
+        <v>0.919</v>
+      </c>
+      <c r="G3">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="H3">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="I3">
+        <v>0.2439024390243903</v>
+      </c>
+      <c r="J3">
+        <v>0.2381357534505578</v>
+      </c>
+      <c r="K3">
+        <v>12.6</v>
+      </c>
+      <c r="L3">
+        <v>0.2363977485928705</v>
+      </c>
+      <c r="M3">
+        <v>-0</v>
+      </c>
+      <c r="N3">
+        <v>-0</v>
+      </c>
+      <c r="O3">
+        <v>-0</v>
+      </c>
+      <c r="P3">
+        <v>-0</v>
+      </c>
+      <c r="Q3">
+        <v>-0</v>
+      </c>
+      <c r="R3">
+        <v>-0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>8.65</v>
+      </c>
+      <c r="V3">
+        <v>0.173</v>
+      </c>
+      <c r="W3">
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <v>0.07572266396924258</v>
+      </c>
+      <c r="Y3">
+        <v>0.4242773360307574</v>
+      </c>
+      <c r="Z3">
+        <v>3.414477898782831</v>
+      </c>
+      <c r="AA3">
+        <v>0.8131092670669269</v>
+      </c>
+      <c r="AB3">
+        <v>0.07572266396924258</v>
+      </c>
+      <c r="AC3">
+        <v>0.7373866030976843</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>-8.65</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.2091898428053204</v>
+      </c>
+      <c r="AK3">
+        <v>-0.2562962962962963</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>-0.6553030303030304</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Mohandes Insurance Company (CASE:MOIN)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Insurance (General)</t>
         </is>
       </c>
-      <c r="G3">
-        <v>0.2598958333333334</v>
-      </c>
-      <c r="H3">
-        <v>0.2598958333333334</v>
-      </c>
-      <c r="I3">
-        <v>0.2864583333333334</v>
-      </c>
-      <c r="J3">
-        <v>0.2512423547400612</v>
-      </c>
-      <c r="K3">
-        <v>9.52</v>
-      </c>
-      <c r="L3">
-        <v>0.2479166666666667</v>
-      </c>
-      <c r="M3">
-        <v>4.75</v>
-      </c>
-      <c r="N3">
-        <v>0.1372832369942197</v>
-      </c>
-      <c r="O3">
-        <v>0.4989495798319328</v>
-      </c>
-      <c r="P3">
-        <v>4.75</v>
-      </c>
-      <c r="Q3">
-        <v>0.1372832369942197</v>
-      </c>
-      <c r="R3">
-        <v>0.4989495798319328</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="V3">
-        <v>0.2323699421965318</v>
-      </c>
-      <c r="W3">
-        <v>0.3565543071161049</v>
-      </c>
-      <c r="X3">
-        <v>0.07611194390815827</v>
-      </c>
-      <c r="Y3">
-        <v>0.2804423632079466</v>
-      </c>
-      <c r="Z3">
-        <v>2.003129890453834</v>
-      </c>
-      <c r="AA3">
-        <v>0.5032710705278221</v>
-      </c>
-      <c r="AB3">
-        <v>0.07611194390815827</v>
-      </c>
-      <c r="AC3">
-        <v>0.4271591266196638</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>-8.039999999999999</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.3027108433734939</v>
-      </c>
-      <c r="AK3">
-        <v>-0.3073394495412843</v>
-      </c>
-      <c r="AL3">
-        <v>0.082</v>
-      </c>
-      <c r="AM3">
-        <v>0.082</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>134.1463414634146</v>
-      </c>
-      <c r="AP3">
-        <v>-0.7243243243243243</v>
-      </c>
-      <c r="AQ3">
-        <v>134.1463414634146</v>
+      <c r="D4">
+        <v>0.172</v>
+      </c>
+      <c r="E4">
+        <v>0.27</v>
+      </c>
+      <c r="G4">
+        <v>0.2643979057591623</v>
+      </c>
+      <c r="H4">
+        <v>0.2643979057591623</v>
+      </c>
+      <c r="I4">
+        <v>0.2575916230366492</v>
+      </c>
+      <c r="J4">
+        <v>0.247198498307387</v>
+      </c>
+      <c r="K4">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.2458115183246073</v>
+      </c>
+      <c r="M4">
+        <v>5.84</v>
+      </c>
+      <c r="N4">
+        <v>0.08550512445095168</v>
+      </c>
+      <c r="O4">
+        <v>0.6219382321618743</v>
+      </c>
+      <c r="P4">
+        <v>5.84</v>
+      </c>
+      <c r="Q4">
+        <v>0.08550512445095168</v>
+      </c>
+      <c r="R4">
+        <v>0.6219382321618743</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>4.63</v>
+      </c>
+      <c r="V4">
+        <v>0.0677891654465593</v>
+      </c>
+      <c r="W4">
+        <v>0.274561403508772</v>
+      </c>
+      <c r="X4">
+        <v>0.07572266396924258</v>
+      </c>
+      <c r="Y4">
+        <v>0.1988387395395294</v>
+      </c>
+      <c r="Z4">
+        <v>1.460244648318043</v>
+      </c>
+      <c r="AA4">
+        <v>0.3609702842256186</v>
+      </c>
+      <c r="AB4">
+        <v>0.07572266396924258</v>
+      </c>
+      <c r="AC4">
+        <v>0.285247620256376</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>-4.63</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.07271870582692005</v>
+      </c>
+      <c r="AK4">
+        <v>-0.1354989757096869</v>
+      </c>
+      <c r="AL4">
+        <v>0.078</v>
+      </c>
+      <c r="AM4">
+        <v>0.078</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>126.1538461538461</v>
+      </c>
+      <c r="AP4">
+        <v>-0.463</v>
+      </c>
+      <c r="AQ4">
+        <v>126.1538461538461</v>
       </c>
     </row>
   </sheetData>
